--- a/Data/Data_geology/bore_data.xlsx
+++ b/Data/Data_geology/bore_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00105295\Projects\Otorowiri\Data\Data_geology\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00105010\Projects\Otorowiri\data\data_geology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B6A9D2-DBAC-4ADD-9FC6-7E30326AD73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D38A2A-77B9-42CD-B4E2-D4E07B59B32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18430" windowHeight="11020" xr2:uid="{23DAD81C-6E6E-47FD-BD82-D89B4913EEEF}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" activeTab="1" xr2:uid="{23DAD81C-6E6E-47FD-BD82-D89B4913EEEF}"/>
   </bookViews>
   <sheets>
     <sheet name="strat" sheetId="1" r:id="rId1"/>
@@ -759,7 +759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F64F87-2530-425F-A398-B36358790E96}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -968,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534F443B-12A3-4009-B06F-E2320A0C6452}">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1248,7 +1248,9 @@
       <c r="F7" s="19">
         <v>203</v>
       </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
       <c r="H7" s="24" t="s">
         <v>14</v>
       </c>
@@ -1565,25 +1567,27 @@
       <c r="S15" s="13"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="19">
         <v>351540</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="19">
         <v>6740261</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="13">
+      <c r="D16" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="19">
         <v>222</v>
       </c>
-      <c r="G16" s="19"/>
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
       <c r="H16" s="24" t="s">
         <v>14</v>
       </c>
@@ -1591,9 +1595,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
-      <c r="M16" s="17">
-        <v>206</v>
-      </c>
+      <c r="M16" s="17"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
@@ -1702,7 +1704,9 @@
       <c r="F19" s="19">
         <v>184</v>
       </c>
-      <c r="G19" s="19"/>
+      <c r="G19" s="19">
+        <v>0</v>
+      </c>
       <c r="H19" s="19">
         <v>0</v>
       </c>
@@ -1975,7 +1979,9 @@
       <c r="F26" s="19">
         <v>169</v>
       </c>
-      <c r="G26" s="19"/>
+      <c r="G26" s="19">
+        <v>0</v>
+      </c>
       <c r="H26" s="19">
         <v>0</v>
       </c>
@@ -1983,9 +1989,7 @@
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
-      <c r="M26" s="21">
-        <v>221</v>
-      </c>
+      <c r="M26" s="21"/>
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
       <c r="P26" s="19"/>
@@ -2090,7 +2094,9 @@
       <c r="F29" s="19">
         <v>193</v>
       </c>
-      <c r="G29" s="19"/>
+      <c r="G29" s="19">
+        <v>0</v>
+      </c>
       <c r="H29" s="19">
         <v>0</v>
       </c>
@@ -2166,7 +2172,9 @@
       <c r="F31" s="19">
         <v>128</v>
       </c>
-      <c r="G31" s="19"/>
+      <c r="G31" s="19">
+        <v>0</v>
+      </c>
       <c r="H31" s="19">
         <v>0</v>
       </c>
@@ -2342,7 +2350,9 @@
       <c r="F35" s="19">
         <v>107</v>
       </c>
-      <c r="G35" s="19"/>
+      <c r="G35" s="19">
+        <v>0</v>
+      </c>
       <c r="H35" s="19">
         <v>0</v>
       </c>
@@ -2510,7 +2520,9 @@
       <c r="F39" s="19">
         <v>123</v>
       </c>
-      <c r="G39" s="19"/>
+      <c r="G39" s="19">
+        <v>0</v>
+      </c>
       <c r="H39" s="19">
         <v>0</v>
       </c>
@@ -2750,7 +2762,9 @@
       <c r="F45" s="19">
         <v>201</v>
       </c>
-      <c r="G45" s="19"/>
+      <c r="G45" s="19">
+        <v>0</v>
+      </c>
       <c r="H45" s="19">
         <v>0</v>
       </c>
@@ -2828,7 +2842,9 @@
       <c r="F47" s="19">
         <v>139</v>
       </c>
-      <c r="G47" s="19"/>
+      <c r="G47" s="19">
+        <v>0</v>
+      </c>
       <c r="H47" s="19">
         <v>0</v>
       </c>
@@ -2918,7 +2934,9 @@
       <c r="F49" s="19">
         <v>233</v>
       </c>
-      <c r="G49" s="19"/>
+      <c r="G49" s="19">
+        <v>0</v>
+      </c>
       <c r="H49" s="19">
         <v>0</v>
       </c>
@@ -3010,7 +3028,9 @@
       <c r="F51" s="19">
         <v>241</v>
       </c>
-      <c r="G51" s="19"/>
+      <c r="G51" s="19">
+        <v>0</v>
+      </c>
       <c r="H51" s="19">
         <v>0</v>
       </c>
@@ -3086,7 +3106,9 @@
       <c r="F53" s="19">
         <v>148</v>
       </c>
-      <c r="G53" s="19"/>
+      <c r="G53" s="19">
+        <v>0</v>
+      </c>
       <c r="H53" s="19">
         <v>0</v>
       </c>
@@ -3094,9 +3116,7 @@
       <c r="J53" s="19"/>
       <c r="K53" s="19"/>
       <c r="L53" s="19"/>
-      <c r="M53" s="21">
-        <v>340</v>
-      </c>
+      <c r="M53" s="21"/>
       <c r="N53" s="19"/>
       <c r="O53" s="19"/>
       <c r="P53" s="19"/>
@@ -3209,7 +3229,9 @@
       <c r="F56" s="19">
         <v>220</v>
       </c>
-      <c r="G56" s="19"/>
+      <c r="G56" s="19">
+        <v>0</v>
+      </c>
       <c r="H56" s="19">
         <v>0</v>
       </c>
